--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1559348.012021438</v>
+        <v>1634877.681686244</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -662,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>114.3157368415537</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>28.58908008912966</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>120.1871323224837</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>126.4869277144717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>219.0570128933256</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2.608692535667528</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>78.40650161670888</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>220.150543985533</v>
+        <v>267.5682911431131</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>43.95972835281642</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.3419076393841</v>
+        <v>174.3062600431766</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>126.9159244190254</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,13 +2061,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>32.41492455119187</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>66.140852155354</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>79.47420870022064</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>209.4552226741776</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2612,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>60.83974965596513</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>131.9238939688725</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>96.57424999934155</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>66.14085215535538</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3281,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>155.8385935972322</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>80.34442404788952</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>86.80469552384545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4153,7 +4155,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,10 +4191,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>285.9888589191019</v>
       </c>
       <c r="V46" t="n">
-        <v>110.1707519847962</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1426.30362575193</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C2" t="n">
-        <v>1426.30362575193</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D2" t="n">
-        <v>1068.03792714518</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>1068.03792714518</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2613.242542872827</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2359.480757510918</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>2359.480757510918</v>
       </c>
       <c r="W2" t="n">
-        <v>2189.908715988822</v>
+        <v>2359.480757510918</v>
       </c>
       <c r="X2" t="n">
-        <v>1816.442957727742</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="Y2" t="n">
-        <v>1426.30362575193</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>418.7159459272334</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>418.7159459272334</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>429.1642627341558</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y4" t="n">
-        <v>600.3644107574731</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="5">
@@ -4568,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2420.850691555458</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2089.787804211887</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1737.019148941773</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1363.553390680693</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.553390680693</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="6">
@@ -4644,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>246.4894537511404</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="C7" t="n">
-        <v>246.4894537511404</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511404</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511404</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X7" t="n">
-        <v>648.9304977249103</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y7" t="n">
-        <v>428.1379185813802</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
     <row r="8">
@@ -4781,19 +4783,19 @@
         <v>1584.823100673951</v>
       </c>
       <c r="C8" t="n">
-        <v>1584.823100673951</v>
+        <v>1215.860583733539</v>
       </c>
       <c r="D8" t="n">
-        <v>1226.5574020672</v>
+        <v>1215.860583733539</v>
       </c>
       <c r="E8" t="n">
-        <v>840.7691494689561</v>
+        <v>1215.860583733539</v>
       </c>
       <c r="F8" t="n">
-        <v>429.7832446793486</v>
+        <v>804.8746789439317</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4881,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>506.1616404812942</v>
       </c>
     </row>
     <row r="11">
@@ -5018,10 +5020,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5033,16 +5035,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5066,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>498.9056400965593</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>745.6707680030233</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5257,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,31 +5296,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5431,25 +5433,25 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,25 +5460,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y16" t="n">
         <v>1322.84934122136</v>
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,34 +5533,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>977.1252736555057</v>
       </c>
       <c r="W19" t="n">
-        <v>920.3704617344999</v>
+        <v>687.7081036185451</v>
       </c>
       <c r="X19" t="n">
-        <v>692.3809108364826</v>
+        <v>687.7081036185451</v>
       </c>
       <c r="Y19" t="n">
-        <v>692.3809108364826</v>
+        <v>687.7081036185451</v>
       </c>
     </row>
     <row r="20">
@@ -5729,67 +5731,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5838,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>244.1070389581962</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>314.4440414834072</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>164.0260330313505</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5941,19 +5943,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1418.639292072831</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>1163.954803866944</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>874.5376338299834</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X22" t="n">
-        <v>646.5480829319661</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y22" t="n">
-        <v>425.7555037884359</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6075,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3570.689985294729</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C25" t="n">
-        <v>3570.689985294729</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D25" t="n">
-        <v>3570.689985294729</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E25" t="n">
-        <v>3570.689985294729</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F25" t="n">
-        <v>3570.689985294729</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G25" t="n">
-        <v>3570.689985294729</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294729</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.859459491671</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281177</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>4036.945405494735</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>3782.260917288848</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W25" t="n">
-        <v>3570.689985294729</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X25" t="n">
-        <v>3570.689985294729</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y25" t="n">
-        <v>3570.689985294729</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="26">
@@ -6218,46 +6220,46 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
@@ -6300,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>821.846685011157</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="C28" t="n">
-        <v>821.846685011157</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="D28" t="n">
-        <v>671.7300455988212</v>
+        <v>270.2059754201214</v>
       </c>
       <c r="E28" t="n">
-        <v>523.8169520164281</v>
+        <v>270.2059754201214</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185177</v>
+        <v>270.2059754201214</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>270.2059754201214</v>
       </c>
       <c r="H28" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1365.659812003486</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>1076.531173217044</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>821.846685011157</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W28" t="n">
-        <v>821.846685011157</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X28" t="n">
-        <v>821.846685011157</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y28" t="n">
-        <v>821.846685011157</v>
+        <v>420.3226148324571</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,22 +6451,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6546,16 +6548,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6649,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557902</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>1498.916270557902</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,22 +6688,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2615.384144152049</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>2862.149272058512</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3169.469405338474</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>3973.880983602625</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4253.421048821322</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4458.413529040523</v>
+        <v>454.2145238948139</v>
       </c>
       <c r="C34" t="n">
-        <v>4289.477346112616</v>
+        <v>454.2145238948139</v>
       </c>
       <c r="D34" t="n">
-        <v>4139.36070670028</v>
+        <v>454.2145238948139</v>
       </c>
       <c r="E34" t="n">
-        <v>3991.447613117887</v>
+        <v>306.3014303124207</v>
       </c>
       <c r="F34" t="n">
-        <v>3844.557665619977</v>
+        <v>306.3014303124207</v>
       </c>
       <c r="G34" t="n">
-        <v>3676.382343939797</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>3525.964335487741</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014292</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V34" t="n">
-        <v>4860.854573014292</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W34" t="n">
-        <v>4860.854573014292</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X34" t="n">
-        <v>4860.854573014292</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y34" t="n">
-        <v>4640.061993870762</v>
+        <v>454.2145238948139</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1141.200876391121</v>
+        <v>4230.423978142507</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632137</v>
+        <v>4061.4877952146</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>3911.371155802264</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>3763.458062219871</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>3616.568114721961</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="X37" t="n">
-        <v>1498.916270557902</v>
+        <v>4632.865022116276</v>
       </c>
       <c r="Y37" t="n">
-        <v>1322.84934122136</v>
+        <v>4412.072442972746</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7190,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>346.5483970272223</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>346.5483970272223</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>346.5483970272223</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>178.3730753470429</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>178.3730753470429</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V40" t="n">
-        <v>786.0822064765186</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W40" t="n">
-        <v>496.665036439558</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>496.665036439558</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>496.665036439558</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7412,16 +7414,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7493,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7597,22 +7599,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1298.996260473455</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>1298.996260473455</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>1298.996260473455</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>1211.314749843308</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,34 +7633,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3925.661817631304</v>
+        <v>4037.196409009357</v>
       </c>
       <c r="C46" t="n">
-        <v>3925.661817631304</v>
+        <v>4037.196409009357</v>
       </c>
       <c r="D46" t="n">
-        <v>3925.661817631304</v>
+        <v>4037.196409009357</v>
       </c>
       <c r="E46" t="n">
-        <v>3777.748724048911</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="F46" t="n">
-        <v>3777.748724048911</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G46" t="n">
-        <v>3609.573402368731</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I46" t="n">
         <v>3459.155393916675</v>
@@ -7837,19 +7839,19 @@
         <v>4326.074044281177</v>
       </c>
       <c r="U46" t="n">
-        <v>4036.945405494735</v>
+        <v>4037.196409009357</v>
       </c>
       <c r="V46" t="n">
-        <v>3925.661817631304</v>
+        <v>4037.196409009357</v>
       </c>
       <c r="W46" t="n">
-        <v>3925.661817631304</v>
+        <v>4037.196409009357</v>
       </c>
       <c r="X46" t="n">
-        <v>3925.661817631304</v>
+        <v>4037.196409009357</v>
       </c>
       <c r="Y46" t="n">
-        <v>3925.661817631304</v>
+        <v>4037.196409009357</v>
       </c>
     </row>
   </sheetData>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>87.16935584025379</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9410,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119852</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,7 +10354,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>91.23759968302051</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,28 +10904,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,25 +11141,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11388,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23264,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>154.2427457127107</v>
+        <v>44.27839330891823</v>
       </c>
     </row>
     <row r="17">
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.9160557629119</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>219.7227187726361</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>44.278393308918</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,16 +24183,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>206.7631436983567</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>77.06777566241342</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>77.06777566241337</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24607,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>88.07407871157099</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>89.62366708951674</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>69.91931846403604</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>44.27839330891661</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>10.65497486614538</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>30.07482141638246</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25837,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>131.7799578282493</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.2484934794754849</v>
       </c>
       <c r="V46" t="n">
-        <v>141.9668913390318</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920753.6512930256</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930252</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920753.6512930256</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>920753.6512930256</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852506</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852506</v>
       </c>
       <c r="G2" t="n">
+        <v>469234.8716852506</v>
+      </c>
+      <c r="H2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="I2" t="n">
         <v>469234.8716852505</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>469234.8716852505</v>
       </c>
-      <c r="I2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="J2" t="n">
-        <v>469234.8716852503</v>
-      </c>
       <c r="K2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852506</v>
       </c>
       <c r="L2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="M2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="O2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852502</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338374</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26433,16 +26435,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
@@ -26476,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26497,13 +26499,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26522,46 +26524,46 @@
         <v>-345834.7631459085</v>
       </c>
       <c r="C6" t="n">
-        <v>244133.116068636</v>
+        <v>244133.1160686359</v>
       </c>
       <c r="D6" t="n">
-        <v>244133.1160686362</v>
+        <v>244133.1160686358</v>
       </c>
       <c r="E6" t="n">
-        <v>-170087.0983272332</v>
+        <v>-170087.0983272326</v>
       </c>
       <c r="F6" t="n">
-        <v>355072.938149663</v>
+        <v>355072.9381496633</v>
       </c>
       <c r="G6" t="n">
+        <v>355072.9381496633</v>
+      </c>
+      <c r="H6" t="n">
+        <v>355072.9381496631</v>
+      </c>
+      <c r="I6" t="n">
         <v>355072.9381496632</v>
       </c>
-      <c r="H6" t="n">
-        <v>355072.9381496632</v>
-      </c>
-      <c r="I6" t="n">
-        <v>355072.9381496629</v>
-      </c>
       <c r="J6" t="n">
-        <v>178649.71895707</v>
+        <v>178649.7189570702</v>
       </c>
       <c r="K6" t="n">
-        <v>355072.9381496631</v>
+        <v>355072.9381496633</v>
       </c>
       <c r="L6" t="n">
         <v>355072.9381496632</v>
       </c>
       <c r="M6" t="n">
-        <v>220271.922915826</v>
+        <v>220271.9229158256</v>
       </c>
       <c r="N6" t="n">
-        <v>355072.9381496632</v>
+        <v>355072.9381496631</v>
       </c>
       <c r="O6" t="n">
-        <v>355072.9381496631</v>
+        <v>355072.938149663</v>
       </c>
       <c r="P6" t="n">
-        <v>355072.938149663</v>
+        <v>355072.9381496628</v>
       </c>
     </row>
   </sheetData>
@@ -26738,40 +26740,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26990,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>292.5603089001577</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>187.8592402685281</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>91.95840662753521</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>92.09772563762311</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>163.676828770155</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27667,10 +27669,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>248.6154749726218</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>5.94099699593491</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>147.3031537723283</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27855,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>193.633626035262</v>
+        <v>146.2158788776819</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28020,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>242.3221458891613</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>63.3731647155137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32403,10 +32405,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>237.744794428193</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,16 +36123,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951472</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>241.8130382709597</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37859,25 +37861,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38108,10 +38110,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1634877.681686244</v>
+        <v>1627860.666794533</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665972</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>105.4275274935938</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>28.58908008912966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>120.1871323224837</v>
+        <v>144.8643043738734</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>219.0570128933256</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>51.93305648474228</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -946,7 +946,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>208.2793294336578</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>267.5682911431131</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>338.2584895448977</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>43.95972835281642</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>115.3436799593542</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>78.77251716083951</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431766</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>32.41492455119187</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>169.7438101404423</v>
       </c>
     </row>
     <row r="20">
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>66.140852155354</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2374,7 +2374,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>60.83974965596513</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896884</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>96.57424999934155</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>170.5809693952192</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883384993</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>155.8385935972322</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>67.84317158410796</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>149.0799667719505</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>174.3062600431766</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>109.6778012403077</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>285.9888589191019</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1595.875667274027</v>
+        <v>1452.115530175776</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>1083.153013235364</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>724.8873146286135</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>724.8873146286135</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>313.9014098390059</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2613.242542872827</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2359.480757510918</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2359.480757510918</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>2359.480757510918</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X2" t="n">
-        <v>1986.014999249838</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y2" t="n">
-        <v>1595.875667274027</v>
+        <v>1838.715370239897</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,19 +4421,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>429.1642627341558</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="T4" t="n">
-        <v>201.8560754027576</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="U4" t="n">
-        <v>201.8560754027576</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="V4" t="n">
-        <v>201.8560754027576</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="W4" t="n">
-        <v>201.8560754027576</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="X4" t="n">
-        <v>201.8560754027576</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>404.2378263186104</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>594.0068113513464</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>594.0068113513464</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>594.0068113513464</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>587.061310602143</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1584.823100673951</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.2708856551153</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C7" t="n">
-        <v>184.2708856551153</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D7" t="n">
-        <v>184.2708856551153</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>184.2708856551153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>184.2708856551153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.2708856551153</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1584.823100673951</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1215.860583733539</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1215.860583733539</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1215.860583733539</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>804.8746789439317</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2355.473849053679</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y8" t="n">
-        <v>1584.823100673951</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="9">
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>506.1616404812942</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>506.1616404812942</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>506.1616404812942</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E10" t="n">
-        <v>506.1616404812942</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F10" t="n">
-        <v>359.2716929833838</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>506.1616404812942</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>506.1616404812942</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>506.1616404812942</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>506.1616404812942</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>506.1616404812942</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>940.1463453738954</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653858</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>692.3809108364831</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>575.8721432007717</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,31 +5296,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653858</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>471.5883316929525</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382245</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5536,28 +5536,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5591,16 +5591,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643586</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473454</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>977.1252736555057</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W19" t="n">
-        <v>687.7081036185451</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X19" t="n">
-        <v>687.7081036185451</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y19" t="n">
-        <v>687.7081036185451</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,25 +5752,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1096.475226584133</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C22" t="n">
-        <v>927.5390436562259</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D22" t="n">
-        <v>777.4224042438901</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="E22" t="n">
-        <v>629.509310661497</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="F22" t="n">
-        <v>482.6193631635866</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>314.4440414834072</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>164.0260330313505</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557902</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>1498.916270557902</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y22" t="n">
-        <v>1278.123691414372</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,28 +5974,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,25 +6056,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643586</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>420.3226148324571</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C28" t="n">
-        <v>420.3226148324571</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D28" t="n">
-        <v>270.2059754201214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>270.2059754201214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>270.2059754201214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>270.2059754201214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324571</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>420.3226148324571</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>420.3226148324571</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y28" t="n">
-        <v>420.3226148324571</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6487,7 +6487,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6548,16 +6548,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6666,7 +6666,7 @@
         <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405193</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155859</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="33">
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571606</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636246</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307618</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526315</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>454.2145238948139</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C34" t="n">
-        <v>454.2145238948139</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>454.2145238948139</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>306.3014303124207</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>306.3014303124207</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585736</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557892</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557892</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557892</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557892</v>
       </c>
       <c r="U34" t="n">
-        <v>675.007103038344</v>
+        <v>1209.78763177145</v>
       </c>
       <c r="V34" t="n">
-        <v>675.007103038344</v>
+        <v>955.1031435655635</v>
       </c>
       <c r="W34" t="n">
-        <v>675.007103038344</v>
+        <v>665.685973528603</v>
       </c>
       <c r="X34" t="n">
-        <v>675.007103038344</v>
+        <v>437.6964226305856</v>
       </c>
       <c r="Y34" t="n">
-        <v>454.2145238948139</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="35">
@@ -6934,49 +6934,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571606</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636246</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307618</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526315</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4230.423978142507</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C37" t="n">
-        <v>4061.4877952146</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D37" t="n">
-        <v>3911.371155802264</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E37" t="n">
-        <v>3763.458062219871</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>3616.568114721961</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799277</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471104</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974658</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980055</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585738</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557894</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557894</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557894</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557894</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014293</v>
+        <v>1209.787631771452</v>
       </c>
       <c r="V37" t="n">
-        <v>4860.854573014293</v>
+        <v>955.1031435655649</v>
       </c>
       <c r="W37" t="n">
-        <v>4860.854573014293</v>
+        <v>665.6859735286043</v>
       </c>
       <c r="X37" t="n">
-        <v>4632.865022116276</v>
+        <v>665.6859735286043</v>
       </c>
       <c r="Y37" t="n">
-        <v>4412.072442972746</v>
+        <v>597.1575173830407</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7195,31 +7195,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>233.78524341101</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555226</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619865</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.623401105981</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1271.749344574921</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V40" t="n">
-        <v>1017.064856369034</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="W40" t="n">
-        <v>727.647686332073</v>
+        <v>696.5850465240055</v>
       </c>
       <c r="X40" t="n">
-        <v>499.6581354340557</v>
+        <v>468.5954956259882</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>247.8029164824581</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7402,19 +7402,19 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7572,19 +7572,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="44">
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4037.196409009357</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="C46" t="n">
-        <v>4037.196409009357</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D46" t="n">
-        <v>4037.196409009357</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>4037.196409009357</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>4037.196409009357</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>4037.196409009357</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>4037.196409009357</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>4037.196409009357</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>19.14409596996984</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,16 +9011,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229593</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10354,7 +10354,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776765</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776765</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>96.03744927814813</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>103.2409733927405</v>
       </c>
     </row>
     <row r="14">
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>88.47430393778832</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.27839330891823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>219.7227187726361</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>48.8408432116525</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2.105225817279774</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>44.278393308918</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>77.06777566241342</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>88.07407871157099</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>69.91931846403604</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>48.00368395687562</v>
       </c>
     </row>
     <row r="35">
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>10.65497486614538</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25368,19 +25368,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>150.7414817679868</v>
       </c>
     </row>
     <row r="38">
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>30.7520134099868</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25602,13 +25602,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>112.2167382934144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>57.56901985832016</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0.2484934794754849</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920753.6512930252</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930254</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930254</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>920753.6512930256</v>
+        <v>920753.6512930252</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920753.6512930256</v>
+        <v>920753.6512930252</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920753.6512930256</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
+        <v>492625.0619185697</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.0619185698</v>
       </c>
-      <c r="D2" t="n">
-        <v>492625.0619185697</v>
-      </c>
       <c r="E2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="F2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="G2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="H2" t="n">
         <v>469234.8716852506</v>
-      </c>
-      <c r="F2" t="n">
-        <v>469234.8716852506</v>
-      </c>
-      <c r="G2" t="n">
-        <v>469234.8716852506</v>
-      </c>
-      <c r="H2" t="n">
-        <v>469234.8716852504</v>
       </c>
       <c r="I2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852507</v>
       </c>
       <c r="K2" t="n">
         <v>469234.8716852506</v>
       </c>
       <c r="L2" t="n">
+        <v>469234.8716852506</v>
+      </c>
+      <c r="M2" t="n">
         <v>469234.8716852505</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="O2" t="n">
+        <v>469234.8716852507</v>
+      </c>
+      <c r="P2" t="n">
         <v>469234.8716852503</v>
-      </c>
-      <c r="N2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="O2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="P2" t="n">
-        <v>469234.8716852502</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338374</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26441,10 +26441,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
@@ -26456,7 +26456,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871659</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871659</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-345834.7631459085</v>
+        <v>-345834.7631459086</v>
       </c>
       <c r="C6" t="n">
-        <v>244133.1160686359</v>
+        <v>244133.1160686358</v>
       </c>
       <c r="D6" t="n">
-        <v>244133.1160686358</v>
+        <v>244133.116068636</v>
       </c>
       <c r="E6" t="n">
-        <v>-170087.0983272326</v>
+        <v>-171061.6895869552</v>
       </c>
       <c r="F6" t="n">
-        <v>355072.9381496633</v>
+        <v>354098.3468899419</v>
       </c>
       <c r="G6" t="n">
-        <v>355072.9381496633</v>
+        <v>354098.3468899414</v>
       </c>
       <c r="H6" t="n">
-        <v>355072.9381496631</v>
+        <v>354098.3468899416</v>
       </c>
       <c r="I6" t="n">
-        <v>355072.9381496632</v>
+        <v>354098.3468899415</v>
       </c>
       <c r="J6" t="n">
-        <v>178649.7189570702</v>
+        <v>177675.1276973487</v>
       </c>
       <c r="K6" t="n">
-        <v>355072.9381496633</v>
+        <v>354098.3468899416</v>
       </c>
       <c r="L6" t="n">
-        <v>355072.9381496632</v>
+        <v>354098.3468899419</v>
       </c>
       <c r="M6" t="n">
-        <v>220271.9229158256</v>
+        <v>219297.3316561043</v>
       </c>
       <c r="N6" t="n">
-        <v>355072.9381496631</v>
+        <v>354098.3468899415</v>
       </c>
       <c r="O6" t="n">
-        <v>355072.938149663</v>
+        <v>354098.3468899417</v>
       </c>
       <c r="P6" t="n">
-        <v>355072.9381496628</v>
+        <v>354098.3468899413</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,13 +26746,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26767,19 +26767,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="O3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>308.3566425272012</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.8592402685281</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>91.95840662753521</v>
+        <v>67.28123457614552</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>163.676828770155</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>361.8511135360527</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,19 +27782,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>5.94099699593491</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>10.30532391843704</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>146.2158788776819</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>10.9824791725153</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,10 +28016,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>75.30176537689294</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>242.3221458891613</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29948,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>-9.992125645415702e-12</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>2.586375558166765e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30173,7 +30173,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-8.578145601253103e-12</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -33414,46 +33414,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,43 +33493,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,43 +33575,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N34" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,43 +33812,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,43 +33967,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,43 +34049,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N40" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34301,10 +34301,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>268.4018009259943</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734254</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36597,7 +36597,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109074</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092011</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37244,10 +37244,10 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006117907</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092011</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799199</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330548</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1627860.666794533</v>
+        <v>1632799.929643565</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800607</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665972</v>
+        <v>1169509.51166598</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>105.4275274935938</v>
+        <v>121.4594505471884</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>144.8643043738734</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>25.1214957780896</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>208.2793294336578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>45.20927613716488</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>338.2584895448977</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>59.66385641544528</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.54110646053125</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274097</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883384939</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014454</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>118.4898845065094</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>115.3436799593542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417029</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274097</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014454</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>78.77251716083951</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>115.526976800215</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273335</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014454</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2061,7 +2061,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>169.7438101404423</v>
+        <v>115.526976800215</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051921</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>176.8688121773819</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,7 +2298,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2414,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>82.60984103906678</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051903</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2651,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>28.5687630676929</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2888,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002151</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896884</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3125,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>122.6519788371575</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>170.5809693952192</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883384993</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3362,10 +3362,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>47.20011114810865</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.84317158410796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3599,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>149.0799667719505</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>139.1537278750011</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>174.3062600431766</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>109.6778012403077</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1452.115530175776</v>
+        <v>1099.346874905661</v>
       </c>
       <c r="C2" t="n">
-        <v>1083.153013235364</v>
+        <v>1099.346874905661</v>
       </c>
       <c r="D2" t="n">
-        <v>724.8873146286135</v>
+        <v>741.081176298911</v>
       </c>
       <c r="E2" t="n">
-        <v>724.8873146286135</v>
+        <v>741.081176298911</v>
       </c>
       <c r="F2" t="n">
-        <v>313.9014098390059</v>
+        <v>330.0952715093035</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4369,13 +4369,13 @@
         <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.715370239897</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.715370239897</v>
+        <v>1485.946714969783</v>
       </c>
     </row>
     <row r="3">
@@ -4400,25 +4400,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>404.2378263186104</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C4" t="n">
-        <v>404.2378263186104</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D4" t="n">
-        <v>404.2378263186104</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E4" t="n">
-        <v>404.2378263186104</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
         <v>99.59950625323012</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>404.2378263186104</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>404.2378263186104</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>404.2378263186104</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>404.2378263186104</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>404.2378263186104</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>404.2378263186104</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.2378263186104</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4573,13 +4573,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.7458231623355</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="C7" t="n">
-        <v>517.7458231623355</v>
+        <v>275.0913939262624</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>124.9747545139267</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="Y7" t="n">
-        <v>517.7458231623355</v>
+        <v>444.0275768541693</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2651.483155526137</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2475.305667840307</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2256.67100081237</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2002.909215450461</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1671.84632810689</v>
       </c>
       <c r="W8" t="n">
-        <v>2355.473849053679</v>
+        <v>1319.077672836776</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.008090792599</v>
+        <v>945.6119145756962</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>555.4725825998845</v>
       </c>
     </row>
     <row r="9">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940985</v>
+        <v>548.5954256477206</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117053</v>
+        <v>400.6823320653275</v>
       </c>
       <c r="F10" t="n">
-        <v>283.209303713795</v>
+        <v>253.7923845674171</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2095034521274</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="H10" t="n">
-        <v>114.2095034521274</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014285</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231255</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5108,34 +5108,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126477</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571598</v>
       </c>
       <c r="L12" t="n">
-        <v>940.1463453738954</v>
+        <v>1288.325632214048</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1595.645765494009</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>2051.87805691801</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136707</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.223678370532</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="C13" t="n">
-        <v>394.223678370532</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581963</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581963</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688065</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799354</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471178</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1379.229518531122</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>835.4163915387937</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617345004</v>
+        <v>545.9992215018332</v>
       </c>
       <c r="X13" t="n">
-        <v>692.3809108364831</v>
+        <v>318.0096706038158</v>
       </c>
       <c r="Y13" t="n">
-        <v>575.8721432007717</v>
+        <v>97.2170914602857</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550594</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610183</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003432</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405188</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014285</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231255</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141859</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465293</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121722</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851608</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590528</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614716</v>
       </c>
     </row>
     <row r="15">
@@ -5345,34 +5345,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126477</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571598</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>1288.325632214048</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977053</v>
+        <v>1722.015429253978</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.87805691801</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136707</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.5883316929525</v>
+        <v>213.9110074200989</v>
       </c>
       <c r="C16" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074200989</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074200989</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074200989</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688065</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799354</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471178</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347405</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609637</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>731.3177283550768</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344999</v>
+        <v>441.9005583181162</v>
       </c>
       <c r="X16" t="n">
-        <v>692.3809108364826</v>
+        <v>213.9110074200989</v>
       </c>
       <c r="Y16" t="n">
-        <v>471.5883316929525</v>
+        <v>213.9110074200989</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550595</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610184</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003433</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405189</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155813</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805394</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822386</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619124</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643319</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899121</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207823</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014286</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231256</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014186</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465294</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121723</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851609</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590529</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614717</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126477</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571598</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636233</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688066</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799355</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471178</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347405</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609637</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765186</v>
+        <v>731.3177283550768</v>
       </c>
       <c r="W19" t="n">
-        <v>496.665036439558</v>
+        <v>441.9005583181162</v>
       </c>
       <c r="X19" t="n">
-        <v>268.6754855415407</v>
+        <v>213.9110074200989</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
     </row>
     <row r="20">
@@ -5728,55 +5728,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515094</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207823</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014286</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126477</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571598</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636232</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="C22" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="D22" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="E22" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688065</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799354</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471178</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262957</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765157</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>786.0822064765157</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>496.6650364395551</v>
       </c>
       <c r="X22" t="n">
-        <v>241.9805482336712</v>
+        <v>496.6650364395551</v>
       </c>
       <c r="Y22" t="n">
-        <v>241.9805482336712</v>
+        <v>275.872457296025</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,67 +5974,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155891</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6104,7 +6104,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W24" t="n">
         <v>1571.258395043133</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028583</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1415.471986680055</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1415.471986680055</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1126.343347893613</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>871.6588596877259</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028583</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028583</v>
+        <v>582.2416896507652</v>
       </c>
     </row>
     <row r="26">
@@ -6202,55 +6202,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514069</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643317</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899119</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207821</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014284</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126477</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147071</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211704</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011311</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265281</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2050.644882483977</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>324.3840174432676</v>
+        <v>413.043221886103</v>
       </c>
       <c r="C28" t="n">
-        <v>155.4478345153607</v>
+        <v>244.107038958196</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.107038958196</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.107038958196</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688065</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799353</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471177</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347405</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609635</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550766</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150548</v>
+        <v>441.900558318116</v>
       </c>
       <c r="X28" t="n">
-        <v>726.8250614170374</v>
+        <v>441.900558318116</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.0324822735073</v>
+        <v>441.900558318116</v>
       </c>
     </row>
     <row r="29">
@@ -6442,52 +6442,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6578,7 +6578,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="T31" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347406</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609639</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550771</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>441.9005583181165</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>213.9110074200991</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.3213845506</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610188</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003438</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405193</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155859</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571606</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636246</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307618</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526315</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6815,7 +6815,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.3924131404652</v>
+        <v>221.1079791745863</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>221.1079791745863</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585736</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557892</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557892</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557892</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557892</v>
+        <v>1275.130855347406</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.78763177145</v>
+        <v>986.0022165609639</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655635</v>
+        <v>731.3177283550771</v>
       </c>
       <c r="W34" t="n">
-        <v>665.685973528603</v>
+        <v>441.9005583181165</v>
       </c>
       <c r="X34" t="n">
-        <v>437.6964226305856</v>
+        <v>441.9005583181165</v>
       </c>
       <c r="Y34" t="n">
-        <v>265.3924131404652</v>
+        <v>221.1079791745863</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,49 +6922,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571606</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636246</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395488</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307618</v>
+        <v>1843.90154205952</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526315</v>
+        <v>2123.441607278216</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7052,7 +7052,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>415.509052552801</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C37" t="n">
-        <v>415.509052552801</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799277</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471104</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974658</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980055</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585738</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557894</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557894</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557894</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557894</v>
+        <v>1275.130855347406</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771452</v>
+        <v>986.0022165609639</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655649</v>
+        <v>731.3177283550771</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286043</v>
+        <v>441.9005583181165</v>
       </c>
       <c r="X37" t="n">
-        <v>665.6859735286043</v>
+        <v>394.223678370532</v>
       </c>
       <c r="Y37" t="n">
-        <v>597.1575173830407</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>233.78524341101</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555226</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619865</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441948</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.623401105981</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609662</v>
+        <v>1009.86762168701</v>
       </c>
       <c r="V40" t="n">
-        <v>986.0022165609662</v>
+        <v>755.1831334811235</v>
       </c>
       <c r="W40" t="n">
-        <v>696.5850465240055</v>
+        <v>465.7659634441629</v>
       </c>
       <c r="X40" t="n">
-        <v>468.5954956259882</v>
+        <v>237.7764125461455</v>
       </c>
       <c r="Y40" t="n">
-        <v>247.8029164824581</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,34 +7390,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,16 +7490,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7572,19 +7572,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>1322.84934122136</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150548</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>19.14409596996984</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>127.6461250100705</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445237</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,22 +9005,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>127.6461250100706</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445237</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720749</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445237</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776807</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987299066</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>73.53204524670582</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928411</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987299066</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776765</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928411</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776765</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928411</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814813</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928334</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.986500349943526e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518798</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>103.2409733927405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>8.58335624798201e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>88.47430393778832</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>29.89407122271621</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>7.617018127348274e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.8408432116525</v>
+        <v>103.0576765518798</v>
       </c>
     </row>
     <row r="20">
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.87805368215777e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>2.963168004555399</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>2.105225817279774</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>115.3109689445365</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>8.668621376273222e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>151.2632171142444</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>90.96703739368829</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T31" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>103.0576765518797</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>25.9634941810549</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>48.00368395687562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>178.5095442409285</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.7414817679868</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.7520134099868</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25566,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>79.43092547709372</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>112.2167382934144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,13 +26025,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>57.56901985832016</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.651293025</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930249</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.651293025</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920753.6512930254</v>
+        <v>920753.6512930249</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920753.6512930254</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930247</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>920753.6512930252</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920753.6512930252</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
     <row r="14">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185696</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852502</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852502</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852501</v>
       </c>
       <c r="H2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852502</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852507</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852507</v>
+        <v>469234.8716852501</v>
       </c>
       <c r="K2" t="n">
         <v>469234.8716852506</v>
@@ -26346,16 +26346,16 @@
         <v>469234.8716852506</v>
       </c>
       <c r="M2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852507</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852507</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852507</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768944</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.837074811803177e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925924</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338367</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.078090463124681e-09</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
+        <v>22174.60758687073</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22174.60758687073</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22174.60758687073</v>
+      </c>
+      <c r="H4" t="n">
+        <v>22174.60758687073</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22174.60758687078</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22174.60758687073</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22174.60758687078</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22174.60758687078</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22174.60758687078</v>
+      </c>
+      <c r="N4" t="n">
+        <v>22174.60758687078</v>
+      </c>
+      <c r="O4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="F4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871648</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871648</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871649</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871649</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871646</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-345834.7631459086</v>
+        <v>-345834.7631459084</v>
       </c>
       <c r="C6" t="n">
-        <v>244133.1160686358</v>
+        <v>244133.1160686357</v>
       </c>
       <c r="D6" t="n">
         <v>244133.116068636</v>
       </c>
       <c r="E6" t="n">
-        <v>-171061.6895869552</v>
+        <v>-170184.5574532036</v>
       </c>
       <c r="F6" t="n">
-        <v>354098.3468899419</v>
+        <v>354975.4790236908</v>
       </c>
       <c r="G6" t="n">
-        <v>354098.3468899414</v>
+        <v>354975.4790236907</v>
       </c>
       <c r="H6" t="n">
-        <v>354098.3468899416</v>
+        <v>354975.4790236908</v>
       </c>
       <c r="I6" t="n">
-        <v>354098.3468899415</v>
+        <v>354975.4790236907</v>
       </c>
       <c r="J6" t="n">
-        <v>177675.1276973487</v>
+        <v>178552.2598310983</v>
       </c>
       <c r="K6" t="n">
-        <v>354098.3468899416</v>
+        <v>354975.479023691</v>
       </c>
       <c r="L6" t="n">
-        <v>354098.3468899419</v>
+        <v>354975.479023691</v>
       </c>
       <c r="M6" t="n">
-        <v>219297.3316561043</v>
+        <v>220174.4637898544</v>
       </c>
       <c r="N6" t="n">
-        <v>354098.3468899415</v>
+        <v>354975.4790236911</v>
       </c>
       <c r="O6" t="n">
-        <v>354098.3468899417</v>
+        <v>354975.4790236896</v>
       </c>
       <c r="P6" t="n">
-        <v>354098.3468899413</v>
+        <v>354975.4790236909</v>
       </c>
     </row>
   </sheetData>
@@ -26743,40 +26743,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054540988</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540988</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540988</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26798,22 +26798,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990157</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545534</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990157</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990157</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>308.3566425272012</v>
+        <v>292.3247194736066</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>165.368082955029</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>67.28123457614552</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>121.3124668684796</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.30532391843704</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>9.269126437646818</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>10.9824791725153</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>75.30176537689294</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>14.65885272800574</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.012701199622825e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29948,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-9.992125645415702e-12</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2.586375558166765e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30173,7 +30173,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-8.578145601253103e-12</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443611</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444939</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304431</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565509</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927176</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540877</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946984</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.490283364749</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.7861055513541</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386723</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127054</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724838</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813454</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855519</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677459</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361477</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263747</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.105041346907</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337658</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892234</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351801</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443611</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444939</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304431</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565509</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927176</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540877</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946984</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.490283364749</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.7861055513541</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386723</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127054</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724838</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813454</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855519</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677459</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361477</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263747</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.105041346907</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337658</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892234</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351801</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443611</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444939</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304431</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565509</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927176</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540877</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946984</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.490283364749</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.7861055513541</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386723</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127054</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724838</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813454</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855519</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677459</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361477</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263747</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.105041346907</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337658</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892234</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351801</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N33" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196123</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N36" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196123</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N39" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196123</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34301,10 +34301,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35017,7 +35017,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109063</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221107</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081108</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951463</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109115</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502042</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349773</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L12" t="n">
-        <v>268.4018009259943</v>
+        <v>620.0980502594828</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504655</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>460.8406984080825</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315241</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507373</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556535</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299103</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118005</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187453</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109063</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221107</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081108</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951463</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109115</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502042</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349773</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594828</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>438.0705020605361</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O15" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315241</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507373</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556535</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299103</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118005</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187453</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109063</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221107</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081108</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951463</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109115</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502042</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349773</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504655</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092045</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556535</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299103</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118005</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187453</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092047</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970350593</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092045</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879387</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415655</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>280.6254601782298</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221192</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092045</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L32" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O32" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970350593</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980127</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O33" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092011</v>
+        <v>495.5025975092045</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006117907</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L35" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221192</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O35" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>598.8335596281458</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O36" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092011</v>
+        <v>207.093414931524</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799199</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221192</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O38" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330548</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O39" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714617</v>
+        <v>495.5025975092045</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
